--- a/ICAB/Nov-Dec 23/Nufhas Exam Leave Application Form_Nov-Dec 2023_Professional Level_Saklayen_90203.xlsx
+++ b/ICAB/Nov-Dec 23/Nufhas Exam Leave Application Form_Nov-Dec 2023_Professional Level_Saklayen_90203.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asaklayen\Documents\App\MyAppData\ICAB\Nov-Dec 23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956E8F83-3781-44B1-BCA9-99FE24AAC9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926E72B2-827A-49F4-8039-9412A1ECEB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF04ACD1-8CEF-451A-9261-32BC3E55D415}"/>
   </bookViews>
@@ -583,12 +583,6 @@
     <xf numFmtId="15" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -616,8 +610,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6336,8 +6336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12FAFFB-81EF-431F-9EA1-6BC9B97E8CEC}">
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6362,77 +6362,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="D2"/>
     </row>
     <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="42"/>
@@ -6454,12 +6454,12 @@
       <c r="Q5" s="42"/>
       <c r="R5" s="42"/>
       <c r="S5" s="42"/>
-      <c r="T5" s="48" t="s">
+      <c r="T5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -6587,10 +6587,10 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
@@ -6603,8 +6603,8 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
@@ -6683,53 +6683,53 @@
       <c r="F18" s="7"/>
     </row>
     <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
     </row>
     <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="I22" s="56" t="s">
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
+      <c r="I22" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="58"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="43"/>
-      <c r="O22" s="56" t="s">
+      <c r="O22" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="58"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="56"/>
     </row>
     <row r="23" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="49" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="39"/>
@@ -6743,7 +6743,7 @@
         <f>IF(F23=TRUE,$U$7,0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="51" t="s">
+      <c r="I23" s="49" t="s">
         <v>30</v>
       </c>
       <c r="J23" s="39"/>
@@ -6757,7 +6757,7 @@
         <f>IF(L23=TRUE,$V$7,0)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="51" t="s">
+      <c r="O23" s="49" t="s">
         <v>31</v>
       </c>
       <c r="P23" s="39"/>
@@ -6773,7 +6773,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C24" s="51"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="39"/>
       <c r="E24" s="3" t="s">
         <v>32</v>
@@ -6785,7 +6785,7 @@
         <f>IF(F24=TRUE,$U$8,0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="51"/>
+      <c r="I24" s="49"/>
       <c r="J24" s="39"/>
       <c r="K24" s="3" t="s">
         <v>32</v>
@@ -6797,7 +6797,7 @@
         <f>IF(L24=TRUE,$V$8,0)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="51"/>
+      <c r="O24" s="49"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="3" t="s">
         <v>32</v>
@@ -6811,7 +6811,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C25" s="51"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="39"/>
       <c r="E25" s="3" t="s">
         <v>33</v>
@@ -6823,7 +6823,7 @@
         <f>IF(F25=TRUE,$U$9,0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="51"/>
+      <c r="I25" s="49"/>
       <c r="J25" s="39"/>
       <c r="K25" s="3" t="s">
         <v>33</v>
@@ -6835,7 +6835,7 @@
         <f>IF(L25=TRUE,$V$9,0)</f>
         <v>3</v>
       </c>
-      <c r="O25" s="51"/>
+      <c r="O25" s="49"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="3" t="s">
         <v>33</v>
@@ -6849,7 +6849,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C26" s="51"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="39"/>
       <c r="E26" s="3" t="s">
         <v>34</v>
@@ -6860,7 +6860,7 @@
       <c r="G26" s="4">
         <v>0</v>
       </c>
-      <c r="I26" s="51"/>
+      <c r="I26" s="49"/>
       <c r="J26" s="39"/>
       <c r="K26" s="3" t="s">
         <v>34</v>
@@ -6871,7 +6871,7 @@
       <c r="M26" s="4">
         <v>0</v>
       </c>
-      <c r="O26" s="51"/>
+      <c r="O26" s="49"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="3" t="s">
         <v>34</v>
@@ -6884,7 +6884,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C27" s="52"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="40"/>
       <c r="E27" s="5" t="s">
         <v>35</v>
@@ -6895,19 +6895,19 @@
       <c r="G27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="52"/>
+      <c r="I27" s="50"/>
       <c r="J27" s="44"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="6"/>
-      <c r="O27" s="52"/>
+      <c r="O27" s="50"/>
       <c r="P27" s="44"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="48" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="41"/>
@@ -6921,7 +6921,7 @@
         <f>IF(F28=TRUE,$U$7,0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="48" t="s">
         <v>37</v>
       </c>
       <c r="J28" s="41"/>
@@ -6935,7 +6935,7 @@
         <f>IF(L28=TRUE,$V$7,0)</f>
         <v>0</v>
       </c>
-      <c r="O28" s="50" t="s">
+      <c r="O28" s="48" t="s">
         <v>38</v>
       </c>
       <c r="P28" s="41"/>
@@ -6951,7 +6951,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C29" s="51"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="39"/>
       <c r="E29" s="3" t="s">
         <v>32</v>
@@ -6963,7 +6963,7 @@
         <f>IF(F29=TRUE,$U$8,0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="51"/>
+      <c r="I29" s="49"/>
       <c r="J29" s="39"/>
       <c r="K29" s="3" t="s">
         <v>32</v>
@@ -6975,7 +6975,7 @@
         <f>IF(L29=TRUE,$V$8,0)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="51"/>
+      <c r="O29" s="49"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="3" t="s">
         <v>32</v>
@@ -6989,7 +6989,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C30" s="51"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="39"/>
       <c r="E30" s="3" t="s">
         <v>33</v>
@@ -7001,7 +7001,7 @@
         <f>IF(F30=TRUE,$U$9,0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="51"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="39"/>
       <c r="K30" s="3" t="s">
         <v>33</v>
@@ -7013,7 +7013,7 @@
         <f>IF(L30=TRUE,$V$9,0)</f>
         <v>0</v>
       </c>
-      <c r="O30" s="51"/>
+      <c r="O30" s="49"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="3" t="s">
         <v>33</v>
@@ -7027,7 +7027,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C31" s="51"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="39"/>
       <c r="E31" s="3" t="s">
         <v>34</v>
@@ -7038,7 +7038,7 @@
       <c r="G31" s="4">
         <v>0</v>
       </c>
-      <c r="I31" s="51"/>
+      <c r="I31" s="49"/>
       <c r="J31" s="39"/>
       <c r="K31" s="3" t="s">
         <v>34</v>
@@ -7049,7 +7049,7 @@
       <c r="M31" s="4">
         <v>0</v>
       </c>
-      <c r="O31" s="51"/>
+      <c r="O31" s="49"/>
       <c r="P31" s="39"/>
       <c r="Q31" s="3" t="s">
         <v>34</v>
@@ -7062,7 +7062,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C32" s="52"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="40"/>
       <c r="E32" s="5" t="s">
         <v>35</v>
@@ -7073,19 +7073,19 @@
       <c r="G32" s="6">
         <v>0</v>
       </c>
-      <c r="I32" s="52"/>
+      <c r="I32" s="50"/>
       <c r="J32" s="44"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
-      <c r="O32" s="52"/>
+      <c r="O32" s="50"/>
       <c r="P32" s="44"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="48" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="41"/>
@@ -7099,7 +7099,7 @@
         <f>IF(F33=TRUE,$U$7,0)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="50" t="s">
+      <c r="I33" s="48" t="s">
         <v>40</v>
       </c>
       <c r="J33" s="41"/>
@@ -7113,7 +7113,7 @@
         <f>IF(L33=TRUE,$V$7,0)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="50" t="s">
+      <c r="O33" s="48" t="s">
         <v>41</v>
       </c>
       <c r="P33" s="41"/>
@@ -7129,7 +7129,7 @@
       </c>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C34" s="51"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="39"/>
       <c r="E34" s="3" t="s">
         <v>32</v>
@@ -7141,7 +7141,7 @@
         <f>IF(F34=TRUE,$U$8,0)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="51"/>
+      <c r="I34" s="49"/>
       <c r="J34" s="39"/>
       <c r="K34" s="3" t="s">
         <v>32</v>
@@ -7153,7 +7153,7 @@
         <f>IF(L34=TRUE,$V$8,0)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="51"/>
+      <c r="O34" s="49"/>
       <c r="P34" s="39"/>
       <c r="Q34" s="3" t="s">
         <v>32</v>
@@ -7167,7 +7167,7 @@
       </c>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C35" s="51"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="39"/>
       <c r="E35" s="3" t="s">
         <v>33</v>
@@ -7179,7 +7179,7 @@
         <f>IF(F35=TRUE,$U$9,0)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="51"/>
+      <c r="I35" s="49"/>
       <c r="J35" s="39"/>
       <c r="K35" s="3" t="s">
         <v>33</v>
@@ -7191,7 +7191,7 @@
         <f>IF(L35=TRUE,$V$9,0)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="51"/>
+      <c r="O35" s="49"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="3" t="s">
         <v>33</v>
@@ -7205,7 +7205,7 @@
       </c>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C36" s="51"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="39"/>
       <c r="E36" s="3" t="s">
         <v>34</v>
@@ -7216,7 +7216,7 @@
       <c r="G36" s="4">
         <v>0</v>
       </c>
-      <c r="I36" s="51"/>
+      <c r="I36" s="49"/>
       <c r="J36" s="39"/>
       <c r="K36" s="3" t="s">
         <v>34</v>
@@ -7227,7 +7227,7 @@
       <c r="M36" s="4">
         <v>0</v>
       </c>
-      <c r="O36" s="51"/>
+      <c r="O36" s="49"/>
       <c r="P36" s="39"/>
       <c r="Q36" s="3" t="s">
         <v>34</v>
@@ -7240,7 +7240,7 @@
       </c>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C37" s="52"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="40"/>
       <c r="E37" s="5" t="s">
         <v>35</v>
@@ -7251,19 +7251,19 @@
       <c r="G37" s="6">
         <v>0</v>
       </c>
-      <c r="I37" s="52"/>
+      <c r="I37" s="50"/>
       <c r="J37" s="44"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="6"/>
-      <c r="O37" s="52"/>
+      <c r="O37" s="50"/>
       <c r="P37" s="44"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="6"/>
     </row>
     <row r="38" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="48" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="41"/>
@@ -7277,7 +7277,7 @@
         <f>IF(F38=TRUE,$U$7,0)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="50" t="s">
+      <c r="I38" s="48" t="s">
         <v>43</v>
       </c>
       <c r="J38" s="41"/>
@@ -7298,7 +7298,7 @@
       <c r="S38" s="13"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C39" s="51"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="39"/>
       <c r="E39" s="3" t="s">
         <v>32</v>
@@ -7310,7 +7310,7 @@
         <f>IF(F39=TRUE,$U$8,0)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="51"/>
+      <c r="I39" s="49"/>
       <c r="J39" s="39"/>
       <c r="K39" s="3" t="s">
         <v>32</v>
@@ -7326,7 +7326,7 @@
       <c r="S39" s="14"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C40" s="51"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="39"/>
       <c r="E40" s="3" t="s">
         <v>33</v>
@@ -7338,7 +7338,7 @@
         <f>IF(F40=TRUE,$U$9,0)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="51"/>
+      <c r="I40" s="49"/>
       <c r="J40" s="39"/>
       <c r="K40" s="3" t="s">
         <v>33</v>
@@ -7354,7 +7354,7 @@
       <c r="S40" s="14"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C41" s="51"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="39"/>
       <c r="E41" s="3" t="s">
         <v>34</v>
@@ -7365,7 +7365,7 @@
       <c r="G41" s="4">
         <v>0</v>
       </c>
-      <c r="I41" s="51"/>
+      <c r="I41" s="49"/>
       <c r="J41" s="39"/>
       <c r="K41" s="3" t="s">
         <v>34</v>
@@ -7380,7 +7380,7 @@
       <c r="S41" s="14"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C42" s="52"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="40"/>
       <c r="E42" s="5" t="s">
         <v>35</v>
@@ -7391,7 +7391,7 @@
       <c r="G42" s="6">
         <v>0</v>
       </c>
-      <c r="I42" s="52"/>
+      <c r="I42" s="50"/>
       <c r="J42" s="44"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -7400,7 +7400,7 @@
       <c r="S42" s="14"/>
     </row>
     <row r="43" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="48" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="41"/>
@@ -7414,7 +7414,7 @@
         <f>IF(F43=TRUE,$U$7,0)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="50" t="s">
+      <c r="I43" s="48" t="s">
         <v>45</v>
       </c>
       <c r="J43" s="41"/>
@@ -7432,7 +7432,7 @@
       <c r="S43" s="14"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C44" s="51"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="39"/>
       <c r="E44" s="3" t="s">
         <v>32</v>
@@ -7444,7 +7444,7 @@
         <f>IF(F44=TRUE,$U$8,0)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="51"/>
+      <c r="I44" s="49"/>
       <c r="J44" s="39"/>
       <c r="K44" s="3" t="s">
         <v>32</v>
@@ -7460,7 +7460,7 @@
       <c r="S44" s="14"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C45" s="51"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="39"/>
       <c r="E45" s="3" t="s">
         <v>33</v>
@@ -7472,7 +7472,7 @@
         <f>IF(F45=TRUE,$U$9,0)</f>
         <v>0</v>
       </c>
-      <c r="I45" s="51"/>
+      <c r="I45" s="49"/>
       <c r="J45" s="39"/>
       <c r="K45" s="3" t="s">
         <v>33</v>
@@ -7488,7 +7488,7 @@
       <c r="S45" s="14"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C46" s="51"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="39"/>
       <c r="E46" s="3" t="s">
         <v>34</v>
@@ -7499,7 +7499,7 @@
       <c r="G46" s="4">
         <v>0</v>
       </c>
-      <c r="I46" s="51"/>
+      <c r="I46" s="49"/>
       <c r="J46" s="39"/>
       <c r="K46" s="3" t="s">
         <v>34</v>
@@ -7514,7 +7514,7 @@
       <c r="S46" s="14"/>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C47" s="52"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="40"/>
       <c r="E47" s="5" t="s">
         <v>35</v>
@@ -7525,7 +7525,7 @@
       <c r="G47" s="6">
         <v>0</v>
       </c>
-      <c r="I47" s="52"/>
+      <c r="I47" s="50"/>
       <c r="J47" s="44"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -7534,7 +7534,7 @@
       <c r="S47" s="14"/>
     </row>
     <row r="48" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="48" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="41"/>
@@ -7548,7 +7548,7 @@
         <f>IF(F48=TRUE,$U$7,0)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="50" t="s">
+      <c r="I48" s="48" t="s">
         <v>47</v>
       </c>
       <c r="J48" s="41"/>
@@ -7566,7 +7566,7 @@
       <c r="S48" s="14"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C49" s="51"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="39"/>
       <c r="E49" s="3" t="s">
         <v>32</v>
@@ -7578,7 +7578,7 @@
         <f>IF(F49=TRUE,$U$8,0)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="51"/>
+      <c r="I49" s="49"/>
       <c r="J49" s="39"/>
       <c r="K49" s="3" t="s">
         <v>32</v>
@@ -7594,7 +7594,7 @@
       <c r="S49" s="14"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C50" s="51"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="39"/>
       <c r="E50" s="3" t="s">
         <v>33</v>
@@ -7606,7 +7606,7 @@
         <f>IF(F50=TRUE,$U$9,0)</f>
         <v>0</v>
       </c>
-      <c r="I50" s="51"/>
+      <c r="I50" s="49"/>
       <c r="J50" s="39"/>
       <c r="K50" s="3" t="s">
         <v>33</v>
@@ -7622,7 +7622,7 @@
       <c r="S50" s="14"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C51" s="51"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="39"/>
       <c r="E51" s="3" t="s">
         <v>34</v>
@@ -7633,7 +7633,7 @@
       <c r="G51" s="4">
         <v>0</v>
       </c>
-      <c r="I51" s="51"/>
+      <c r="I51" s="49"/>
       <c r="J51" s="39"/>
       <c r="K51" s="3" t="s">
         <v>34</v>
@@ -7648,7 +7648,7 @@
       <c r="S51" s="14"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C52" s="52"/>
+      <c r="C52" s="50"/>
       <c r="D52" s="40"/>
       <c r="E52" s="5" t="s">
         <v>35</v>
@@ -7659,7 +7659,7 @@
       <c r="G52" s="6">
         <v>0</v>
       </c>
-      <c r="I52" s="52"/>
+      <c r="I52" s="50"/>
       <c r="J52" s="44"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -7668,7 +7668,7 @@
       <c r="S52" s="14"/>
     </row>
     <row r="53" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="41"/>
@@ -7682,7 +7682,7 @@
         <f>IF(F53=TRUE,$U$7,0)</f>
         <v>0</v>
       </c>
-      <c r="I53" s="50" t="s">
+      <c r="I53" s="48" t="s">
         <v>49</v>
       </c>
       <c r="J53" s="41"/>
@@ -7700,7 +7700,7 @@
       <c r="S53" s="14"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C54" s="51"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="39"/>
       <c r="E54" s="3" t="s">
         <v>32</v>
@@ -7712,7 +7712,7 @@
         <f>IF(F54=TRUE,$U$8,0)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="51"/>
+      <c r="I54" s="49"/>
       <c r="J54" s="39"/>
       <c r="K54" s="3" t="s">
         <v>32</v>
@@ -7728,7 +7728,7 @@
       <c r="S54" s="14"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C55" s="51"/>
+      <c r="C55" s="49"/>
       <c r="D55" s="39"/>
       <c r="E55" s="3" t="s">
         <v>33</v>
@@ -7740,7 +7740,7 @@
         <f>IF(F55=TRUE,$U$9,0)</f>
         <v>0</v>
       </c>
-      <c r="I55" s="51"/>
+      <c r="I55" s="49"/>
       <c r="J55" s="39"/>
       <c r="K55" s="3" t="s">
         <v>33</v>
@@ -7756,7 +7756,7 @@
       <c r="S55" s="14"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C56" s="51"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="39"/>
       <c r="E56" s="3" t="s">
         <v>34</v>
@@ -7767,7 +7767,7 @@
       <c r="G56" s="4">
         <v>0</v>
       </c>
-      <c r="I56" s="51"/>
+      <c r="I56" s="49"/>
       <c r="J56" s="39"/>
       <c r="K56" s="3" t="s">
         <v>34</v>
@@ -7782,7 +7782,7 @@
       <c r="S56" s="14"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C57" s="52"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="40"/>
       <c r="E57" s="5" t="s">
         <v>35</v>
@@ -7793,7 +7793,7 @@
       <c r="G57" s="6">
         <v>0</v>
       </c>
-      <c r="I57" s="52"/>
+      <c r="I57" s="50"/>
       <c r="J57" s="44"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -7867,10 +7867,10 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="54"/>
+      <c r="B66" s="52"/>
       <c r="C66" t="s">
         <v>55</v>
       </c>
@@ -7883,8 +7883,8 @@
       <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
       <c r="C67" t="s">
         <v>56</v>
       </c>
@@ -7897,8 +7897,8 @@
       <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="28" t="s">
         <v>57</v>
       </c>
@@ -7906,13 +7906,13 @@
         <v>5</v>
       </c>
       <c r="E68" s="37">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
       <c r="C69" t="s">
         <v>58</v>
       </c>
@@ -7936,50 +7936,50 @@
       <c r="P71" s="46"/>
     </row>
     <row r="73" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="53"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="53"/>
-      <c r="O73" s="53"/>
-      <c r="P73" s="53"/>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="53"/>
-      <c r="S73" s="53"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="49" t="s">
+      <c r="A74" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="49"/>
-      <c r="R74" s="49"/>
-      <c r="S74" s="49"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
+      <c r="L74" s="57"/>
+      <c r="M74" s="57"/>
+      <c r="N74" s="57"/>
+      <c r="O74" s="57"/>
+      <c r="P74" s="57"/>
+      <c r="Q74" s="57"/>
+      <c r="R74" s="57"/>
+      <c r="S74" s="57"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B75" s="27"/>
@@ -8023,19 +8023,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="coS9BJKuEahJYAkCBmY/Qpw1IbAPCpGjt9mX/L45Dqkf0eCxwEAhiodnL8WjxfiEive+Lw/UN9K/3L5mEo6naw==" saltValue="kP22IassJSRqeh2FIZGfsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="29">
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="C20:S20"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="I28:I32"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="A74:S74"/>
     <mergeCell ref="I48:I52"/>
@@ -8052,6 +8039,19 @@
     <mergeCell ref="A66:B69"/>
     <mergeCell ref="C53:C57"/>
     <mergeCell ref="I33:I37"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="C20:S20"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="I28:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9739,21 +9739,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072E6418FE76ADB4FA5E0B49A577DC461" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cca469af643afd6d4aeca1d5b35e48a0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69e593e6-903e-45a0-9797-ceb8210d8249" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="103e0c994c1d2e36ad97546d8380dd4d" ns2:_="">
     <xsd:import namespace="69e593e6-903e-45a0-9797-ceb8210d8249"/>
@@ -9885,24 +9870,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4273771D-DF64-4EB7-89CF-1EA2BF6EE941}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD81F696-66D5-4DFA-A51B-221259FD7C92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A091FE0-F901-4D0B-8D2A-CAB136DE135F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9918,4 +9901,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD81F696-66D5-4DFA-A51B-221259FD7C92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4273771D-DF64-4EB7-89CF-1EA2BF6EE941}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>